--- a/data/trans_dic/P64D$andando_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.3335598236996267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3422645430135282</v>
+        <v>0.342264543013528</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2117753569401173</v>
+        <v>0.2196566230162064</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2196782697236737</v>
+        <v>0.2171901209299776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2599879752998829</v>
+        <v>0.2463452300901391</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.506161312213913</v>
+        <v>0.524486551518626</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4885873919898207</v>
+        <v>0.465707848562936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.457907633898662</v>
+        <v>0.450121609106194</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1587324856778806</v>
+        <v>0.1616719098838148</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3016120335665622</v>
+        <v>0.3061273095523357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2382259317818415</v>
+        <v>0.2397258213481693</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2607526712269806</v>
+        <v>0.2607144362109227</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4155203472990803</v>
+        <v>0.4187745209720897</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3160004894383464</v>
+        <v>0.3153045907266795</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.2118872379176688</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3496891013423723</v>
+        <v>0.3496891013423722</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.27049195941039</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1757021602673052</v>
+        <v>0.1776646999062833</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3089545957438417</v>
+        <v>0.3086773207643415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2437634015693338</v>
+        <v>0.2444262925351321</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2488556125187421</v>
+        <v>0.2506393533233738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3908396113169269</v>
+        <v>0.389274995049767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2996655617035447</v>
+        <v>0.299314542212084</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1739383883854451</v>
+        <v>0.1722315582640859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3099308520000686</v>
+        <v>0.3051612156840979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2427665324477175</v>
+        <v>0.2438164903927132</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2426916869653525</v>
+        <v>0.2455431655010989</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3799653713249302</v>
+        <v>0.3763951298600011</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2947129860608093</v>
+        <v>0.291655823843286</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2584271869814856</v>
+        <v>0.2584271869814855</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4517430658150391</v>
+        <v>0.451743065815039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3387481712023333</v>
+        <v>0.3387481712023332</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2164787915121871</v>
+        <v>0.2138220261375816</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4027103401986176</v>
+        <v>0.3966543590768528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3073714516386843</v>
+        <v>0.3045386656696583</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3083280481114458</v>
+        <v>0.307644180772289</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5028122576245496</v>
+        <v>0.4997858396922039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3738511632152836</v>
+        <v>0.3767115254497448</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.3645063182706986</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2860027964840825</v>
+        <v>0.2860027964840826</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2055243117350834</v>
+        <v>0.2037463681294059</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3421903674947679</v>
+        <v>0.3405130677230654</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2719109462146191</v>
+        <v>0.2710608481439207</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2490656408256705</v>
+        <v>0.24786466973608</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3869504279306096</v>
+        <v>0.3862363767893331</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3020165496128742</v>
+        <v>0.3019849719331005</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22199</v>
+        <v>23025</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20154</v>
+        <v>19926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51104</v>
+        <v>48423</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53056</v>
+        <v>54977</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44824</v>
+        <v>42725</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>90008</v>
+        <v>88478</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>62845</v>
+        <v>64009</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>95044</v>
+        <v>96467</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>169388</v>
+        <v>170455</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>103237</v>
+        <v>103222</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>130938</v>
+        <v>131964</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>224689</v>
+        <v>224194</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>94264</v>
+        <v>95316</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>122655</v>
+        <v>122545</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>227552</v>
+        <v>228171</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>133510</v>
+        <v>134467</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>155163</v>
+        <v>154542</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>279736</v>
+        <v>279409</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>94544</v>
+        <v>93616</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>141014</v>
+        <v>138844</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>242411</v>
+        <v>243459</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>131915</v>
+        <v>133465</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>172879</v>
+        <v>171254</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>294281</v>
+        <v>291229</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70876</v>
+        <v>70007</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>93724</v>
+        <v>92314</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>172170</v>
+        <v>170584</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>100948</v>
+        <v>100725</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>117021</v>
+        <v>116316</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>209408</v>
+        <v>211010</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>392180</v>
+        <v>388787</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>510404</v>
+        <v>507902</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>924435</v>
+        <v>921545</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>475265</v>
+        <v>472973</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>577167</v>
+        <v>576102</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1026787</v>
+        <v>1026680</v>
       </c>
     </row>
     <row r="28">
